--- a/data/rosters.xlsx
+++ b/data/rosters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Insync/rmaxsm@umich.edu/Google Drive/FF/TRUFFLE/TRUFFLEdashGIT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39716D68-F2D3-1A4B-97D7-0C3CE62A75E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E7B107-6809-1B4C-92F4-FBE4CFC6B908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{39CA9C08-FB51-3C46-AB1F-DC61E7635A66}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$283</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$281</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="310">
   <si>
     <t>ARCTIC FIGHTING LEMURLOOS PLAYERS</t>
   </si>
@@ -780,41 +780,6 @@
       </rPr>
       <t> </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Jamal Agnew</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>WR | JAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>Jakeem Grant WR | CLE</t>
   </si>
   <si>
     <t>Mike Williams WR | LAC</t>
@@ -3365,10 +3330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA7D2B6-859A-DA45-9CB3-9054D2FE27AA}">
-  <dimension ref="A1:P290"/>
+  <dimension ref="A1:P288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3492,7 +3457,7 @@
         <v>2021</v>
       </c>
       <c r="O4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P4" t="s">
         <v>19</v>
@@ -3506,10 +3471,10 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -3553,10 +3518,10 @@
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -3600,10 +3565,10 @@
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -3644,13 +3609,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -3694,10 +3659,10 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F9">
         <v>14</v>
@@ -3738,13 +3703,13 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F10">
         <v>14</v>
@@ -3785,13 +3750,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -3832,13 +3797,13 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -3879,13 +3844,13 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F13">
         <v>9</v>
@@ -3926,13 +3891,13 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F14">
         <v>11</v>
@@ -3981,10 +3946,10 @@
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F16">
         <v>9</v>
@@ -4025,13 +3990,13 @@
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F17">
         <v>11</v>
@@ -4072,13 +4037,13 @@
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" t="s">
         <v>192</v>
-      </c>
-      <c r="D18" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" t="s">
-        <v>194</v>
       </c>
       <c r="F18">
         <v>13</v>
@@ -4119,13 +4084,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -4169,10 +4134,10 @@
         <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -4216,10 +4181,10 @@
         <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F21">
         <v>9</v>
@@ -4263,10 +4228,10 @@
         <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F22">
         <v>14</v>
@@ -4307,13 +4272,13 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F23">
         <v>9</v>
@@ -4354,13 +4319,13 @@
         <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -4401,13 +4366,13 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -4451,10 +4416,10 @@
         <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F26">
         <v>14</v>
@@ -4502,7 +4467,7 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
@@ -4571,7 +4536,7 @@
         <v>2021</v>
       </c>
       <c r="O32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P32" t="s">
         <v>19</v>
@@ -4585,10 +4550,10 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F33">
         <v>7</v>
@@ -4629,13 +4594,13 @@
         <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F34">
         <v>14</v>
@@ -4679,10 +4644,10 @@
         <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F35">
         <v>14</v>
@@ -4726,10 +4691,10 @@
         <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F36">
         <v>9</v>
@@ -4773,10 +4738,10 @@
         <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F37">
         <v>11</v>
@@ -4817,13 +4782,13 @@
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F38">
         <v>9</v>
@@ -4867,10 +4832,10 @@
         <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F39">
         <v>11</v>
@@ -4914,10 +4879,10 @@
         <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F40">
         <v>11</v>
@@ -4958,13 +4923,13 @@
         <v>26</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F41">
         <v>7</v>
@@ -5005,13 +4970,13 @@
         <v>27</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F42">
         <v>13</v>
@@ -5057,13 +5022,13 @@
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F44">
         <v>11</v>
@@ -5104,13 +5069,13 @@
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F45">
         <v>7</v>
@@ -5151,13 +5116,13 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F46">
         <v>13</v>
@@ -5198,13 +5163,13 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F47">
         <v>7</v>
@@ -5245,13 +5210,13 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F48">
         <v>10</v>
@@ -5292,13 +5257,13 @@
         <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F49">
         <v>14</v>
@@ -5339,13 +5304,13 @@
         <v>26</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F50">
         <v>7</v>
@@ -5386,13 +5351,13 @@
         <v>26</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E51" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F51">
         <v>9</v>
@@ -5440,7 +5405,7 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
@@ -5509,7 +5474,7 @@
         <v>2021</v>
       </c>
       <c r="O57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P57" t="s">
         <v>19</v>
@@ -5523,10 +5488,10 @@
         <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F58">
         <v>6</v>
@@ -5567,13 +5532,13 @@
         <v>21</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F59">
         <v>14</v>
@@ -5614,13 +5579,13 @@
         <v>22</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" t="s">
         <v>220</v>
-      </c>
-      <c r="D60" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" t="s">
-        <v>222</v>
       </c>
       <c r="F60">
         <v>11</v>
@@ -5664,10 +5629,10 @@
         <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F61">
         <v>7</v>
@@ -5708,13 +5673,13 @@
         <v>22</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D62" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -5755,13 +5720,13 @@
         <v>23</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F63">
         <v>8</v>
@@ -5805,10 +5770,10 @@
         <v>75</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F64">
         <v>9</v>
@@ -5852,10 +5817,10 @@
         <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F65">
         <v>10</v>
@@ -5896,13 +5861,13 @@
         <v>27</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F66">
         <v>9</v>
@@ -5948,13 +5913,13 @@
         <v>22</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D68" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E68" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F68">
         <v>7</v>
@@ -5995,13 +5960,13 @@
         <v>23</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E69" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F69">
         <v>13</v>
@@ -6042,13 +6007,13 @@
         <v>26</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D70" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F70">
         <v>14</v>
@@ -6089,13 +6054,13 @@
         <v>26</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E71" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F71">
         <v>10</v>
@@ -6136,13 +6101,13 @@
         <v>26</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D72" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E72" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F72">
         <v>14</v>
@@ -6183,13 +6148,13 @@
         <v>26</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D73" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E73" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F73">
         <v>9</v>
@@ -6237,7 +6202,7 @@
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.2">
@@ -6306,7 +6271,7 @@
         <v>2021</v>
       </c>
       <c r="O79" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P79" t="s">
         <v>19</v>
@@ -6320,10 +6285,10 @@
         <v>76</v>
       </c>
       <c r="D80" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E80" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F80">
         <v>14</v>
@@ -6364,13 +6329,13 @@
         <v>21</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E81" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F81">
         <v>14</v>
@@ -6414,10 +6379,10 @@
         <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E82" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F82">
         <v>8</v>
@@ -6458,13 +6423,13 @@
         <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D83" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E83" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F83">
         <v>13</v>
@@ -6508,10 +6473,10 @@
         <v>77</v>
       </c>
       <c r="D84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E84" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F84">
         <v>11</v>
@@ -6552,13 +6517,13 @@
         <v>22</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F85">
         <v>9</v>
@@ -6599,13 +6564,13 @@
         <v>23</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F86">
         <v>10</v>
@@ -6649,10 +6614,10 @@
         <v>78</v>
       </c>
       <c r="D87" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E87" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F87">
         <v>14</v>
@@ -6696,10 +6661,10 @@
         <v>79</v>
       </c>
       <c r="D88" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E88" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F88">
         <v>10</v>
@@ -6740,13 +6705,13 @@
         <v>27</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D89" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E89" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F89">
         <v>9</v>
@@ -6792,13 +6757,13 @@
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D91" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F91">
         <v>13</v>
@@ -6842,10 +6807,10 @@
         <v>80</v>
       </c>
       <c r="D92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F92">
         <v>9</v>
@@ -6889,10 +6854,10 @@
         <v>82</v>
       </c>
       <c r="D93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F93">
         <v>7</v>
@@ -6933,13 +6898,13 @@
         <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -6980,13 +6945,13 @@
         <v>22</v>
       </c>
       <c r="C95" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D95" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E95" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F95">
         <v>10</v>
@@ -7030,10 +6995,10 @@
         <v>83</v>
       </c>
       <c r="D96" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E96" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F96">
         <v>10</v>
@@ -7074,13 +7039,13 @@
         <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D97" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F97">
         <v>8</v>
@@ -7121,13 +7086,13 @@
         <v>26</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D98" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E98" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F98">
         <v>14</v>
@@ -7168,13 +7133,13 @@
         <v>26</v>
       </c>
       <c r="C99" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D99" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F99">
         <v>8</v>
@@ -7215,13 +7180,13 @@
         <v>26</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E100" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F100">
         <v>14</v>
@@ -7262,13 +7227,13 @@
         <v>26</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D101" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F101">
         <v>11</v>
@@ -7316,7 +7281,7 @@
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.2">
@@ -7385,7 +7350,7 @@
         <v>2021</v>
       </c>
       <c r="O107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P107" t="s">
         <v>19</v>
@@ -7399,10 +7364,10 @@
         <v>84</v>
       </c>
       <c r="D108" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E108" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F108">
         <v>8</v>
@@ -7443,13 +7408,13 @@
         <v>21</v>
       </c>
       <c r="C109" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D109" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E109" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F109">
         <v>13</v>
@@ -7493,10 +7458,10 @@
         <v>85</v>
       </c>
       <c r="D110" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E110" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F110">
         <v>6</v>
@@ -7540,10 +7505,10 @@
         <v>86</v>
       </c>
       <c r="D111" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E111" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F111">
         <v>10</v>
@@ -7584,13 +7549,13 @@
         <v>22</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D112" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E112" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F112">
         <v>10</v>
@@ -7634,10 +7599,10 @@
         <v>87</v>
       </c>
       <c r="D113" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F113">
         <v>11</v>
@@ -7681,10 +7646,10 @@
         <v>88</v>
       </c>
       <c r="D114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E114" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F114">
         <v>6</v>
@@ -7725,13 +7690,13 @@
         <v>24</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D115" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E115" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F115">
         <v>9</v>
@@ -7772,13 +7737,13 @@
         <v>26</v>
       </c>
       <c r="C116" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D116" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E116" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F116">
         <v>11</v>
@@ -7819,13 +7784,13 @@
         <v>27</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D117" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F117">
         <v>8</v>
@@ -7871,13 +7836,13 @@
         <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D119" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E119" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F119">
         <v>6</v>
@@ -7918,13 +7883,13 @@
         <v>20</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D120" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E120" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F120">
         <v>9</v>
@@ -7965,13 +7930,13 @@
         <v>21</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D121" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F121">
         <v>6</v>
@@ -8012,13 +7977,13 @@
         <v>21</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D122" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E122" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F122">
         <v>7</v>
@@ -8062,10 +8027,10 @@
         <v>89</v>
       </c>
       <c r="D123" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E123" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F123">
         <v>9</v>
@@ -8106,13 +8071,13 @@
         <v>22</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D124" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E124" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F124">
         <v>14</v>
@@ -8153,13 +8118,13 @@
         <v>22</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D125" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E125" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F125">
         <v>14</v>
@@ -8200,13 +8165,13 @@
         <v>22</v>
       </c>
       <c r="C126" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D126" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E126" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F126">
         <v>8</v>
@@ -8250,10 +8215,10 @@
         <v>90</v>
       </c>
       <c r="D127" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E127" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F127">
         <v>6</v>
@@ -8301,7 +8266,7 @@
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.2">
@@ -8370,7 +8335,7 @@
         <v>2021</v>
       </c>
       <c r="O133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P133" t="s">
         <v>19</v>
@@ -8384,10 +8349,10 @@
         <v>91</v>
       </c>
       <c r="D134" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E134" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F134">
         <v>9</v>
@@ -8428,13 +8393,13 @@
         <v>21</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D135" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E135" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F135">
         <v>10</v>
@@ -8478,10 +8443,10 @@
         <v>99</v>
       </c>
       <c r="D136" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E136" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F136">
         <v>13</v>
@@ -8525,10 +8490,10 @@
         <v>92</v>
       </c>
       <c r="D137" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F137">
         <v>8</v>
@@ -8572,10 +8537,10 @@
         <v>93</v>
       </c>
       <c r="D138" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E138" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F138">
         <v>10</v>
@@ -8619,10 +8584,10 @@
         <v>94</v>
       </c>
       <c r="D139" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E139" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F139">
         <v>9</v>
@@ -8666,10 +8631,10 @@
         <v>95</v>
       </c>
       <c r="D140" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E140" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F140">
         <v>11</v>
@@ -8710,13 +8675,13 @@
         <v>24</v>
       </c>
       <c r="C141" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D141" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E141" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F141">
         <v>14</v>
@@ -8760,10 +8725,10 @@
         <v>96</v>
       </c>
       <c r="D142" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E142" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F142">
         <v>6</v>
@@ -8807,10 +8772,10 @@
         <v>97</v>
       </c>
       <c r="D143" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E143" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F143">
         <v>10</v>
@@ -8859,10 +8824,10 @@
         <v>98</v>
       </c>
       <c r="D145" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E145" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F145">
         <v>14</v>
@@ -8903,13 +8868,13 @@
         <v>21</v>
       </c>
       <c r="C146" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D146" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E146" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F146">
         <v>9</v>
@@ -8950,13 +8915,13 @@
         <v>26</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D147" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E147" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F147">
         <v>9</v>
@@ -8997,13 +8962,13 @@
         <v>26</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D148" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E148" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F148">
         <v>14</v>
@@ -9044,13 +9009,13 @@
         <v>26</v>
       </c>
       <c r="C149" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D149" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E149" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F149">
         <v>6</v>
@@ -9098,7 +9063,7 @@
     </row>
     <row r="152" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="153" spans="2:16" x14ac:dyDescent="0.2">
@@ -9167,7 +9132,7 @@
         <v>2021</v>
       </c>
       <c r="O155" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P155" t="s">
         <v>19</v>
@@ -9181,10 +9146,10 @@
         <v>100</v>
       </c>
       <c r="D156" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E156" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F156">
         <v>11</v>
@@ -9228,10 +9193,10 @@
         <v>104</v>
       </c>
       <c r="D157" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E157" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F157">
         <v>6</v>
@@ -9272,13 +9237,13 @@
         <v>21</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D158" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E158" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F158">
         <v>11</v>
@@ -9322,10 +9287,10 @@
         <v>105</v>
       </c>
       <c r="D159" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E159" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F159">
         <v>11</v>
@@ -9369,10 +9334,10 @@
         <v>106</v>
       </c>
       <c r="D160" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E160" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F160">
         <v>11</v>
@@ -9413,13 +9378,13 @@
         <v>22</v>
       </c>
       <c r="C161" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D161" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E161" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F161">
         <v>9</v>
@@ -9463,10 +9428,10 @@
         <v>103</v>
       </c>
       <c r="D162" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E162" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F162">
         <v>7</v>
@@ -9510,10 +9475,10 @@
         <v>108</v>
       </c>
       <c r="D163" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E163" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F163">
         <v>13</v>
@@ -9554,13 +9519,13 @@
         <v>26</v>
       </c>
       <c r="C164" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D164" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E164" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F164">
         <v>14</v>
@@ -9601,13 +9566,13 @@
         <v>27</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D165" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E165" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F165">
         <v>7</v>
@@ -9653,13 +9618,13 @@
         <v>22</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D167" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E167" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F167">
         <v>14</v>
@@ -9703,10 +9668,10 @@
         <v>101</v>
       </c>
       <c r="D168" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E168" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F168">
         <v>6</v>
@@ -9750,10 +9715,10 @@
         <v>102</v>
       </c>
       <c r="D169" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E169" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F169">
         <v>11</v>
@@ -9797,10 +9762,10 @@
         <v>107</v>
       </c>
       <c r="D170" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E170" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F170">
         <v>8</v>
@@ -9841,13 +9806,13 @@
         <v>26</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D171" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E171" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F171">
         <v>13</v>
@@ -9888,13 +9853,13 @@
         <v>26</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D172" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E172" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F172">
         <v>13</v>
@@ -9935,13 +9900,13 @@
         <v>26</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D173" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E173" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F173">
         <v>11</v>
@@ -9982,13 +9947,13 @@
         <v>26</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D174" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E174" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F174">
         <v>10</v>
@@ -10036,7 +10001,7 @@
     </row>
     <row r="177" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="178" spans="2:16" x14ac:dyDescent="0.2">
@@ -10105,7 +10070,7 @@
         <v>2021</v>
       </c>
       <c r="O180" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P180" t="s">
         <v>19</v>
@@ -10119,10 +10084,10 @@
         <v>109</v>
       </c>
       <c r="D181" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E181" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F181">
         <v>8</v>
@@ -10166,10 +10131,10 @@
         <v>112</v>
       </c>
       <c r="D182" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E182" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F182">
         <v>11</v>
@@ -10210,13 +10175,13 @@
         <v>21</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D183" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E183" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F183">
         <v>8</v>
@@ -10260,10 +10225,10 @@
         <v>110</v>
       </c>
       <c r="D184" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E184" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F184">
         <v>7</v>
@@ -10304,13 +10269,13 @@
         <v>22</v>
       </c>
       <c r="C185" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D185" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E185" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F185">
         <v>6</v>
@@ -10351,13 +10316,13 @@
         <v>22</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D186" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E186" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F186">
         <v>8</v>
@@ -10398,13 +10363,13 @@
         <v>23</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D187" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E187" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F187">
         <v>14</v>
@@ -10445,13 +10410,13 @@
         <v>24</v>
       </c>
       <c r="C188" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D188" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E188" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F188">
         <v>14</v>
@@ -10492,13 +10457,13 @@
         <v>26</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D189" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E189" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F189">
         <v>9</v>
@@ -10547,10 +10512,10 @@
         <v>111</v>
       </c>
       <c r="D191" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E191" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F191">
         <v>11</v>
@@ -10588,96 +10553,96 @@
     </row>
     <row r="192" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>114</v>
+        <v>273</v>
       </c>
       <c r="D192" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="E192" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F192">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G192">
-        <v>43.5</v>
-      </c>
-      <c r="H192" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="H192">
+        <v>58</v>
       </c>
       <c r="I192">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J192">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="K192">
         <v>0</v>
       </c>
       <c r="L192">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N192">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="O192">
-        <v>42.2</v>
+        <v>0</v>
       </c>
       <c r="P192">
-        <v>46.48</v>
-      </c>
-    </row>
-    <row r="193" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="193" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>24</v>
-      </c>
-      <c r="C193" t="s">
-        <v>113</v>
+        <v>26</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="D193" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E193" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F193">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G193">
-        <v>43</v>
-      </c>
-      <c r="H193" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="H193">
+        <v>58</v>
       </c>
       <c r="I193">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J193">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="K193">
         <v>0</v>
       </c>
       <c r="L193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N193">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="O193">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="P193">
-        <v>44.03</v>
+        <v>23.51</v>
       </c>
     </row>
     <row r="194" spans="2:16" x14ac:dyDescent="0.2">
@@ -10688,22 +10653,22 @@
         <v>275</v>
       </c>
       <c r="D194" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="E194" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F194">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G194">
-        <v>43</v>
+        <v>51.5</v>
       </c>
       <c r="H194">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I194">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J194">
         <v>0.03</v>
@@ -10724,484 +10689,484 @@
         <v>0</v>
       </c>
       <c r="P194">
-        <v>90.5</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="195" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>26</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D195" t="s">
-        <v>193</v>
-      </c>
-      <c r="E195" t="s">
-        <v>194</v>
-      </c>
-      <c r="F195">
-        <v>13</v>
-      </c>
-      <c r="G195">
-        <v>54</v>
-      </c>
-      <c r="H195">
-        <v>58</v>
-      </c>
-      <c r="I195">
-        <v>17</v>
-      </c>
-      <c r="J195">
-        <v>0.01</v>
-      </c>
-      <c r="K195">
-        <v>0</v>
-      </c>
-      <c r="L195">
-        <v>3</v>
-      </c>
-      <c r="M195">
-        <v>3</v>
-      </c>
-      <c r="N195">
-        <v>0</v>
-      </c>
-      <c r="O195">
-        <v>0</v>
-      </c>
-      <c r="P195">
-        <v>23.51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>26</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D196" t="s">
-        <v>258</v>
-      </c>
-      <c r="E196" t="s">
-        <v>194</v>
-      </c>
-      <c r="F196">
-        <v>6</v>
-      </c>
-      <c r="G196">
-        <v>51.5</v>
-      </c>
-      <c r="H196">
-        <v>57</v>
-      </c>
-      <c r="I196">
-        <v>29</v>
-      </c>
-      <c r="J196">
-        <v>0.03</v>
-      </c>
-      <c r="K196">
-        <v>0</v>
-      </c>
-      <c r="L196">
-        <v>5</v>
-      </c>
-      <c r="M196">
-        <v>3</v>
-      </c>
-      <c r="N196">
-        <v>0</v>
-      </c>
-      <c r="O196">
-        <v>0</v>
-      </c>
-      <c r="P196">
-        <v>22.01</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>29</v>
+        <v>276</v>
       </c>
     </row>
     <row r="198" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="199" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B199" t="s">
-        <v>278</v>
+      <c r="C199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>2</v>
+      </c>
+      <c r="E199" t="s">
+        <v>3</v>
+      </c>
+      <c r="F199" t="s">
+        <v>4</v>
+      </c>
+      <c r="G199" t="s">
+        <v>5</v>
+      </c>
+      <c r="H199" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" t="s">
+        <v>11</v>
+      </c>
+      <c r="G200" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" t="s">
+        <v>13</v>
+      </c>
+      <c r="I200" t="s">
+        <v>14</v>
+      </c>
+      <c r="J200" t="s">
+        <v>15</v>
+      </c>
+      <c r="K200" t="s">
+        <v>16</v>
+      </c>
+      <c r="L200" t="s">
+        <v>17</v>
+      </c>
+      <c r="M200" t="s">
+        <v>18</v>
+      </c>
+      <c r="N200">
+        <v>2021</v>
+      </c>
+      <c r="O200" t="s">
+        <v>138</v>
+      </c>
+      <c r="P200" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C201" t="s">
-        <v>1</v>
+      <c r="B201" t="s">
+        <v>20</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D201" t="s">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="E201" t="s">
-        <v>3</v>
-      </c>
-      <c r="F201" t="s">
+        <v>220</v>
+      </c>
+      <c r="F201">
+        <v>11</v>
+      </c>
+      <c r="G201">
+        <v>52</v>
+      </c>
+      <c r="H201">
+        <v>5</v>
+      </c>
+      <c r="I201">
         <v>4</v>
       </c>
-      <c r="G201" t="s">
-        <v>5</v>
-      </c>
-      <c r="H201" t="s">
-        <v>6</v>
+      <c r="J201">
+        <v>0.98</v>
+      </c>
+      <c r="K201">
+        <v>0.89</v>
+      </c>
+      <c r="L201">
+        <v>84</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>388.74</v>
+      </c>
+      <c r="O201">
+        <v>335.76</v>
+      </c>
+      <c r="P201">
+        <v>320.86</v>
       </c>
     </row>
     <row r="202" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>7</v>
-      </c>
-      <c r="C202" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
-      </c>
-      <c r="F202" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" t="s">
+        <v>192</v>
+      </c>
+      <c r="F202">
+        <v>14</v>
+      </c>
+      <c r="G202">
+        <v>48</v>
+      </c>
+      <c r="H202">
         <v>12</v>
       </c>
-      <c r="H202" t="s">
-        <v>13</v>
-      </c>
-      <c r="I202" t="s">
-        <v>14</v>
-      </c>
-      <c r="J202" t="s">
-        <v>15</v>
-      </c>
-      <c r="K202" t="s">
-        <v>16</v>
-      </c>
-      <c r="L202" t="s">
-        <v>17</v>
-      </c>
-      <c r="M202" t="s">
-        <v>18</v>
+      <c r="I202">
+        <v>24</v>
+      </c>
+      <c r="J202">
+        <v>0.99</v>
+      </c>
+      <c r="K202">
+        <v>0.82</v>
+      </c>
+      <c r="L202">
+        <v>96</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
       </c>
       <c r="N202">
-        <v>2021</v>
-      </c>
-      <c r="O202" t="s">
-        <v>140</v>
-      </c>
-      <c r="P202" t="s">
-        <v>19</v>
+        <v>236</v>
+      </c>
+      <c r="O202">
+        <v>288.3</v>
+      </c>
+      <c r="P202">
+        <v>185.35</v>
       </c>
     </row>
     <row r="203" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>279</v>
+        <v>116</v>
       </c>
       <c r="D203" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E203" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="F203">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G203">
-        <v>52</v>
+        <v>44.5</v>
       </c>
       <c r="H203">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="I203">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J203">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="K203">
-        <v>0.89</v>
+        <v>0.24</v>
       </c>
       <c r="L203">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="M203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N203">
-        <v>388.74</v>
+        <v>136.9</v>
       </c>
       <c r="O203">
-        <v>335.76</v>
+        <v>136.9</v>
       </c>
       <c r="P203">
-        <v>320.86</v>
+        <v>130.61000000000001</v>
       </c>
     </row>
     <row r="204" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D204" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="E204" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F204">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G204">
-        <v>48</v>
+        <v>52.5</v>
       </c>
       <c r="H204">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I204">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J204">
         <v>0.99</v>
       </c>
       <c r="K204">
-        <v>0.82</v>
+        <v>0.97</v>
       </c>
       <c r="L204">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="M204">
         <v>1</v>
       </c>
       <c r="N204">
-        <v>236</v>
+        <v>384.5</v>
       </c>
       <c r="O204">
-        <v>288.3</v>
+        <v>260.89999999999998</v>
       </c>
       <c r="P204">
-        <v>185.35</v>
-      </c>
-    </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.2">
+        <v>265.20999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>21</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>118</v>
+        <v>22</v>
+      </c>
+      <c r="C205" t="s">
+        <v>114</v>
       </c>
       <c r="D205" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E205" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F205">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G205">
-        <v>44.5</v>
+        <v>41.5</v>
       </c>
       <c r="H205">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="I205">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J205">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="K205">
-        <v>0.24</v>
+        <v>0.83</v>
       </c>
       <c r="L205">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="M205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N205">
-        <v>136.9</v>
+        <v>217.3</v>
       </c>
       <c r="O205">
-        <v>136.9</v>
+        <v>214.3</v>
       </c>
       <c r="P205">
-        <v>130.61000000000001</v>
-      </c>
-    </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.2">
+        <v>157.56</v>
+      </c>
+    </row>
+    <row r="206" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>22</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>281</v>
+      <c r="C206" t="s">
+        <v>117</v>
       </c>
       <c r="D206" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E206" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F206">
         <v>7</v>
       </c>
       <c r="G206">
-        <v>52.5</v>
+        <v>48</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J206">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="K206">
-        <v>0.97</v>
+        <v>0.17</v>
       </c>
       <c r="L206">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M206">
         <v>1</v>
       </c>
       <c r="N206">
-        <v>384.5</v>
+        <v>169.8</v>
       </c>
       <c r="O206">
-        <v>260.89999999999998</v>
+        <v>165.8</v>
       </c>
       <c r="P206">
-        <v>265.20999999999998</v>
-      </c>
-    </row>
-    <row r="207" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>145.82</v>
+      </c>
+    </row>
+    <row r="207" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>22</v>
-      </c>
-      <c r="C207" t="s">
-        <v>116</v>
+        <v>23</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D207" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="E207" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F207">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G207">
-        <v>41.5</v>
+        <v>45.5</v>
       </c>
       <c r="H207">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I207">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J207">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
       <c r="K207">
-        <v>0.83</v>
+        <v>0.12</v>
       </c>
       <c r="L207">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="M207">
         <v>1</v>
       </c>
       <c r="N207">
-        <v>217.3</v>
+        <v>103.3</v>
       </c>
       <c r="O207">
-        <v>214.3</v>
+        <v>59.4</v>
       </c>
       <c r="P207">
-        <v>157.56</v>
+        <v>70.010000000000005</v>
       </c>
     </row>
     <row r="208" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C208" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="D208" t="s">
         <v>211</v>
       </c>
       <c r="E208" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F208">
         <v>7</v>
       </c>
       <c r="G208">
-        <v>48</v>
-      </c>
-      <c r="H208">
-        <v>28</v>
+        <v>52.5</v>
+      </c>
+      <c r="H208" t="s">
+        <v>25</v>
       </c>
       <c r="I208">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J208">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K208">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="L208">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="M208">
         <v>1</v>
       </c>
       <c r="N208">
-        <v>169.8</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="O208">
-        <v>165.8</v>
+        <v>98.1</v>
       </c>
       <c r="P208">
-        <v>145.82</v>
-      </c>
-    </row>
-    <row r="209" spans="2:16" x14ac:dyDescent="0.2">
+        <v>87.91</v>
+      </c>
+    </row>
+    <row r="209" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>23</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>117</v>
+        <v>26</v>
+      </c>
+      <c r="C209" t="s">
+        <v>280</v>
       </c>
       <c r="D209" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E209" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F209">
         <v>10</v>
@@ -11209,326 +11174,326 @@
       <c r="G209">
         <v>45.5</v>
       </c>
-      <c r="H209">
-        <v>31</v>
+      <c r="H209" t="s">
+        <v>25</v>
       </c>
       <c r="I209">
         <v>27</v>
       </c>
       <c r="J209">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="K209">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N209">
-        <v>103.3</v>
+        <v>0</v>
       </c>
       <c r="O209">
-        <v>59.4</v>
+        <v>0</v>
       </c>
       <c r="P209">
-        <v>70.010000000000005</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="210" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C210" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="D210" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E210" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F210">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G210">
-        <v>52.5</v>
-      </c>
-      <c r="H210" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="H210">
+        <v>23</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J210">
-        <v>0.85</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K210">
-        <v>0.4</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L210">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M210">
         <v>1</v>
       </c>
       <c r="N210">
-        <v>151.19999999999999</v>
+        <v>128</v>
       </c>
       <c r="O210">
-        <v>98.1</v>
+        <v>126</v>
       </c>
       <c r="P210">
-        <v>87.91</v>
-      </c>
-    </row>
-    <row r="211" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>132.19999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>26</v>
-      </c>
-      <c r="C211" t="s">
-        <v>282</v>
-      </c>
-      <c r="D211" t="s">
-        <v>233</v>
-      </c>
-      <c r="E211" t="s">
-        <v>180</v>
-      </c>
-      <c r="F211">
-        <v>10</v>
-      </c>
-      <c r="G211">
-        <v>45.5</v>
-      </c>
-      <c r="H211" t="s">
-        <v>25</v>
-      </c>
-      <c r="I211">
-        <v>27</v>
-      </c>
-      <c r="J211">
-        <v>0</v>
-      </c>
-      <c r="K211">
-        <v>0</v>
-      </c>
-      <c r="L211">
-        <v>3</v>
-      </c>
-      <c r="M211">
-        <v>3</v>
-      </c>
-      <c r="N211">
-        <v>0</v>
-      </c>
-      <c r="O211">
-        <v>0</v>
-      </c>
-      <c r="P211">
-        <v>16.62</v>
-      </c>
-    </row>
-    <row r="212" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="212" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>27</v>
-      </c>
-      <c r="C212" t="s">
-        <v>283</v>
-      </c>
-      <c r="D212" t="s">
-        <v>219</v>
-      </c>
-      <c r="E212" t="s">
-        <v>194</v>
-      </c>
-      <c r="F212">
-        <v>8</v>
-      </c>
-      <c r="G212">
-        <v>54</v>
-      </c>
-      <c r="H212">
-        <v>23</v>
-      </c>
-      <c r="I212">
-        <v>12</v>
-      </c>
-      <c r="J212">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K212">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L212">
-        <v>15</v>
-      </c>
-      <c r="M212">
-        <v>1</v>
-      </c>
-      <c r="N212">
-        <v>128</v>
-      </c>
-      <c r="O212">
-        <v>126</v>
-      </c>
-      <c r="P212">
-        <v>132.19999999999999</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
     </row>
     <row r="215" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="216" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B216" t="s">
-        <v>284</v>
+      <c r="C216" t="s">
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>2</v>
+      </c>
+      <c r="E216" t="s">
+        <v>3</v>
+      </c>
+      <c r="F216" t="s">
+        <v>4</v>
+      </c>
+      <c r="G216" t="s">
+        <v>5</v>
+      </c>
+      <c r="H216" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217" t="s">
+        <v>11</v>
+      </c>
+      <c r="G217" t="s">
+        <v>12</v>
+      </c>
+      <c r="H217" t="s">
+        <v>13</v>
+      </c>
+      <c r="I217" t="s">
+        <v>14</v>
+      </c>
+      <c r="J217" t="s">
+        <v>15</v>
+      </c>
+      <c r="K217" t="s">
+        <v>16</v>
+      </c>
+      <c r="L217" t="s">
+        <v>17</v>
+      </c>
+      <c r="M217" t="s">
+        <v>18</v>
+      </c>
+      <c r="N217">
+        <v>2021</v>
+      </c>
+      <c r="O217" t="s">
+        <v>138</v>
+      </c>
+      <c r="P217" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="218" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C218" t="s">
-        <v>1</v>
+      <c r="B218" t="s">
+        <v>20</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="D218" t="s">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="E218" t="s">
-        <v>3</v>
-      </c>
-      <c r="F218" t="s">
-        <v>4</v>
-      </c>
-      <c r="G218" t="s">
-        <v>5</v>
-      </c>
-      <c r="H218" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="219" spans="2:16" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="F218">
+        <v>13</v>
+      </c>
+      <c r="G218">
+        <v>54</v>
+      </c>
+      <c r="H218">
+        <v>7</v>
+      </c>
+      <c r="I218">
+        <v>31</v>
+      </c>
+      <c r="J218">
+        <v>0.99</v>
+      </c>
+      <c r="K218">
+        <v>0.9</v>
+      </c>
+      <c r="L218">
+        <v>83</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>325.48</v>
+      </c>
+      <c r="O218">
+        <v>357.78</v>
+      </c>
+      <c r="P218">
+        <v>315.35000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
+        <v>21</v>
+      </c>
+      <c r="C219" t="s">
+        <v>168</v>
+      </c>
+      <c r="D219" t="s">
+        <v>211</v>
+      </c>
+      <c r="E219" t="s">
+        <v>196</v>
+      </c>
+      <c r="F219">
         <v>7</v>
       </c>
-      <c r="C219" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" t="s">
-        <v>9</v>
-      </c>
-      <c r="E219" t="s">
+      <c r="G219">
+        <v>52.5</v>
+      </c>
+      <c r="H219">
+        <v>18</v>
+      </c>
+      <c r="I219">
+        <v>13</v>
+      </c>
+      <c r="J219">
+        <v>0.42</v>
+      </c>
+      <c r="K219">
+        <v>0.13</v>
+      </c>
+      <c r="L219">
         <v>10</v>
       </c>
-      <c r="F219" t="s">
-        <v>11</v>
-      </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
-      <c r="H219" t="s">
-        <v>13</v>
-      </c>
-      <c r="I219" t="s">
-        <v>14</v>
-      </c>
-      <c r="J219" t="s">
-        <v>15</v>
-      </c>
-      <c r="K219" t="s">
-        <v>16</v>
-      </c>
-      <c r="L219" t="s">
-        <v>17</v>
-      </c>
-      <c r="M219" t="s">
-        <v>18</v>
+      <c r="M219">
+        <v>1</v>
       </c>
       <c r="N219">
-        <v>2021</v>
-      </c>
-      <c r="O219" t="s">
-        <v>140</v>
-      </c>
-      <c r="P219" t="s">
-        <v>19</v>
+        <v>1.3</v>
+      </c>
+      <c r="O219">
+        <v>59</v>
+      </c>
+      <c r="P219">
+        <v>163.72</v>
       </c>
     </row>
     <row r="220" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D220" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="E220" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F220">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G220">
-        <v>54</v>
-      </c>
-      <c r="H220">
-        <v>7</v>
+        <v>51.5</v>
+      </c>
+      <c r="H220" t="s">
+        <v>25</v>
       </c>
       <c r="I220">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J220">
-        <v>0.99</v>
+        <v>0.49</v>
       </c>
       <c r="K220">
-        <v>0.9</v>
+        <v>0.04</v>
       </c>
       <c r="L220">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="M220">
         <v>1</v>
       </c>
       <c r="N220">
-        <v>325.48</v>
+        <v>90.2</v>
       </c>
       <c r="O220">
-        <v>357.78</v>
+        <v>65.2</v>
       </c>
       <c r="P220">
-        <v>315.35000000000002</v>
-      </c>
-    </row>
-    <row r="221" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>21</v>
-      </c>
-      <c r="C221" t="s">
-        <v>170</v>
+        <v>22</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D221" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="E221" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F221">
         <v>7</v>
@@ -11536,742 +11501,742 @@
       <c r="G221">
         <v>52.5</v>
       </c>
-      <c r="H221">
-        <v>18</v>
+      <c r="H221" t="s">
+        <v>25</v>
       </c>
       <c r="I221">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J221">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
       <c r="K221">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="L221">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M221">
         <v>1</v>
       </c>
       <c r="N221">
-        <v>1.3</v>
+        <v>111.3</v>
       </c>
       <c r="O221">
-        <v>59</v>
+        <v>148.58000000000001</v>
       </c>
       <c r="P221">
-        <v>163.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>286</v>
+        <v>119</v>
       </c>
       <c r="D222" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="E222" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F222">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G222">
-        <v>51.5</v>
-      </c>
-      <c r="H222" t="s">
-        <v>25</v>
+        <v>43.5</v>
+      </c>
+      <c r="H222">
+        <v>20</v>
       </c>
       <c r="I222">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J222">
-        <v>0.49</v>
+        <v>0.99</v>
       </c>
       <c r="K222">
-        <v>0.04</v>
+        <v>0.85</v>
       </c>
       <c r="L222">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="M222">
         <v>1</v>
       </c>
       <c r="N222">
-        <v>90.2</v>
+        <v>179.5</v>
       </c>
       <c r="O222">
-        <v>65.2</v>
+        <v>199.3</v>
       </c>
       <c r="P222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="2:16" x14ac:dyDescent="0.2">
+        <v>154.93</v>
+      </c>
+    </row>
+    <row r="223" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>22</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>120</v>
+      <c r="C223" t="s">
+        <v>169</v>
       </c>
       <c r="D223" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E223" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="F223">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G223">
-        <v>52.5</v>
-      </c>
-      <c r="H223" t="s">
+        <v>43</v>
+      </c>
+      <c r="H223">
+        <v>38</v>
+      </c>
+      <c r="I223">
         <v>25</v>
       </c>
-      <c r="I223">
-        <v>21</v>
-      </c>
       <c r="J223">
-        <v>0.61</v>
+        <v>0.91</v>
       </c>
       <c r="K223">
-        <v>0.16</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L223">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M223">
         <v>1</v>
       </c>
       <c r="N223">
-        <v>111.3</v>
+        <v>175.62</v>
       </c>
       <c r="O223">
-        <v>148.58000000000001</v>
+        <v>148.13999999999999</v>
       </c>
       <c r="P223">
-        <v>0</v>
+        <v>116.53</v>
       </c>
     </row>
     <row r="224" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D224" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E224" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F224">
         <v>9</v>
       </c>
       <c r="G224">
-        <v>43.5</v>
+        <v>44</v>
       </c>
       <c r="H224">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I224">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J224">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
       <c r="K224">
-        <v>0.85</v>
+        <v>0.42</v>
       </c>
       <c r="L224">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="M224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N224">
-        <v>179.5</v>
+        <v>125.7</v>
       </c>
       <c r="O224">
-        <v>199.3</v>
+        <v>125.7</v>
       </c>
       <c r="P224">
-        <v>154.93</v>
+        <v>91.22</v>
       </c>
     </row>
     <row r="225" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C225" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="D225" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E225" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F225">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G225">
-        <v>43</v>
-      </c>
-      <c r="H225">
-        <v>38</v>
+        <v>52.5</v>
+      </c>
+      <c r="H225" t="s">
+        <v>25</v>
       </c>
       <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>0.93</v>
+      </c>
+      <c r="K225">
+        <v>0.54</v>
+      </c>
+      <c r="L225">
+        <v>18</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>113.1</v>
+      </c>
+      <c r="O225">
+        <v>120.72</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>26</v>
+      </c>
+      <c r="C226" t="s">
+        <v>122</v>
+      </c>
+      <c r="D226" t="s">
+        <v>211</v>
+      </c>
+      <c r="E226" t="s">
+        <v>196</v>
+      </c>
+      <c r="F226">
+        <v>7</v>
+      </c>
+      <c r="G226">
+        <v>52.5</v>
+      </c>
+      <c r="H226">
         <v>25</v>
       </c>
-      <c r="J225">
-        <v>0.91</v>
-      </c>
-      <c r="K225">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L225">
-        <v>2</v>
-      </c>
-      <c r="M225">
-        <v>1</v>
-      </c>
-      <c r="N225">
-        <v>175.62</v>
-      </c>
-      <c r="O225">
-        <v>148.13999999999999</v>
-      </c>
-      <c r="P225">
-        <v>116.53</v>
-      </c>
-    </row>
-    <row r="226" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B226" t="s">
-        <v>23</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D226" t="s">
-        <v>206</v>
-      </c>
-      <c r="E226" t="s">
-        <v>180</v>
-      </c>
-      <c r="F226">
-        <v>9</v>
-      </c>
-      <c r="G226">
-        <v>44</v>
-      </c>
-      <c r="H226">
-        <v>10</v>
-      </c>
       <c r="I226">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J226">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="K226">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="L226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N226">
-        <v>125.7</v>
+        <v>119</v>
       </c>
       <c r="O226">
-        <v>125.7</v>
+        <v>116.5</v>
       </c>
       <c r="P226">
-        <v>91.22</v>
-      </c>
-    </row>
-    <row r="227" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>86.73</v>
+      </c>
+    </row>
+    <row r="227" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>24</v>
-      </c>
-      <c r="C227" t="s">
+        <v>27</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D227" t="s">
+        <v>182</v>
+      </c>
+      <c r="E227" t="s">
+        <v>178</v>
+      </c>
+      <c r="F227">
+        <v>14</v>
+      </c>
+      <c r="G227">
+        <v>42.5</v>
+      </c>
+      <c r="H227">
+        <v>17</v>
+      </c>
+      <c r="I227">
+        <v>28</v>
+      </c>
+      <c r="J227">
+        <v>0.94</v>
+      </c>
+      <c r="K227">
+        <v>0.7</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>124</v>
+      </c>
+      <c r="O227">
         <v>123</v>
       </c>
-      <c r="D227" t="s">
-        <v>213</v>
-      </c>
-      <c r="E227" t="s">
-        <v>198</v>
-      </c>
-      <c r="F227">
-        <v>7</v>
-      </c>
-      <c r="G227">
-        <v>52.5</v>
-      </c>
-      <c r="H227" t="s">
-        <v>25</v>
-      </c>
-      <c r="I227">
-        <v>1</v>
-      </c>
-      <c r="J227">
-        <v>0.93</v>
-      </c>
-      <c r="K227">
-        <v>0.54</v>
-      </c>
-      <c r="L227">
-        <v>18</v>
-      </c>
-      <c r="M227">
-        <v>1</v>
-      </c>
-      <c r="N227">
-        <v>113.1</v>
-      </c>
-      <c r="O227">
-        <v>120.72</v>
-      </c>
       <c r="P227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>166.7</v>
+      </c>
+    </row>
+    <row r="228" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>26</v>
-      </c>
-      <c r="C228" t="s">
-        <v>124</v>
-      </c>
-      <c r="D228" t="s">
-        <v>213</v>
-      </c>
-      <c r="E228" t="s">
-        <v>198</v>
-      </c>
-      <c r="F228">
-        <v>7</v>
-      </c>
-      <c r="G228">
-        <v>52.5</v>
-      </c>
-      <c r="H228">
-        <v>25</v>
-      </c>
-      <c r="I228">
-        <v>7</v>
-      </c>
-      <c r="J228">
-        <v>0.64</v>
-      </c>
-      <c r="K228">
-        <v>0.25</v>
-      </c>
-      <c r="L228">
-        <v>1</v>
-      </c>
-      <c r="M228">
-        <v>1</v>
-      </c>
-      <c r="N228">
-        <v>119</v>
-      </c>
-      <c r="O228">
-        <v>116.5</v>
-      </c>
-      <c r="P228">
-        <v>86.73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="229" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="D229" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="E229" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="F229">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G229">
-        <v>42.5</v>
-      </c>
-      <c r="H229">
-        <v>17</v>
+        <v>52</v>
+      </c>
+      <c r="H229" t="s">
+        <v>25</v>
       </c>
       <c r="I229">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="J229">
-        <v>0.94</v>
+        <v>0.05</v>
       </c>
       <c r="K229">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N229">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="230" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
+        <v>20</v>
+      </c>
+      <c r="C230" t="s">
+        <v>170</v>
+      </c>
+      <c r="D230" t="s">
+        <v>207</v>
+      </c>
+      <c r="E230" t="s">
+        <v>178</v>
+      </c>
+      <c r="F230">
+        <v>9</v>
+      </c>
+      <c r="G230">
+        <v>43.5</v>
+      </c>
+      <c r="H230">
+        <v>8</v>
+      </c>
+      <c r="I230">
+        <v>10</v>
+      </c>
+      <c r="J230">
+        <v>0.31</v>
+      </c>
+      <c r="K230">
+        <v>0.1</v>
+      </c>
+      <c r="L230">
+        <v>62</v>
+      </c>
+      <c r="M230">
+        <v>2</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>248.48</v>
+      </c>
+      <c r="P230">
+        <v>322.22000000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
+        <v>21</v>
+      </c>
+      <c r="C231" t="s">
         <v>123</v>
       </c>
-      <c r="P229">
-        <v>166.7</v>
-      </c>
-    </row>
-    <row r="230" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B230" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="231" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B231" t="s">
-        <v>20</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="D231" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="E231" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="F231">
         <v>11</v>
       </c>
       <c r="G231">
-        <v>52</v>
+        <v>41.5</v>
       </c>
       <c r="H231" t="s">
         <v>25</v>
       </c>
       <c r="I231">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J231">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
       <c r="K231">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="M231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N231">
-        <v>0</v>
+        <v>54.1</v>
       </c>
       <c r="O231">
-        <v>0</v>
+        <v>179.8</v>
       </c>
       <c r="P231">
-        <v>14.05</v>
-      </c>
-    </row>
-    <row r="232" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>20</v>
-      </c>
-      <c r="C232" t="s">
-        <v>172</v>
+        <v>22</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="D232" t="s">
+        <v>219</v>
+      </c>
+      <c r="E232" t="s">
+        <v>220</v>
+      </c>
+      <c r="F232">
+        <v>11</v>
+      </c>
+      <c r="G232">
+        <v>52</v>
+      </c>
+      <c r="H232" t="s">
+        <v>25</v>
+      </c>
+      <c r="I232">
+        <v>22</v>
+      </c>
+      <c r="J232">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K232">
+        <v>0.03</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232">
+        <v>43.6</v>
+      </c>
+      <c r="O232">
+        <v>16.7</v>
+      </c>
+      <c r="P232">
+        <v>38.450000000000003</v>
+      </c>
+    </row>
+    <row r="233" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D233" t="s">
         <v>209</v>
       </c>
-      <c r="E232" t="s">
-        <v>180</v>
-      </c>
-      <c r="F232">
-        <v>9</v>
-      </c>
-      <c r="G232">
-        <v>43.5</v>
-      </c>
-      <c r="H232">
-        <v>8</v>
-      </c>
-      <c r="I232">
-        <v>10</v>
-      </c>
-      <c r="J232">
-        <v>0.31</v>
-      </c>
-      <c r="K232">
-        <v>0.1</v>
-      </c>
-      <c r="L232">
-        <v>62</v>
-      </c>
-      <c r="M232">
-        <v>2</v>
-      </c>
-      <c r="N232">
-        <v>0</v>
-      </c>
-      <c r="O232">
-        <v>248.48</v>
-      </c>
-      <c r="P232">
-        <v>322.22000000000003</v>
-      </c>
-    </row>
-    <row r="233" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B233" t="s">
-        <v>21</v>
-      </c>
-      <c r="C233" t="s">
-        <v>125</v>
-      </c>
-      <c r="D233" t="s">
-        <v>190</v>
-      </c>
       <c r="E233" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F233">
+        <v>7</v>
+      </c>
+      <c r="G233">
+        <v>48</v>
+      </c>
+      <c r="H233">
+        <v>3</v>
+      </c>
+      <c r="I233">
         <v>11</v>
       </c>
-      <c r="G233">
-        <v>41.5</v>
-      </c>
-      <c r="H233" t="s">
-        <v>25</v>
-      </c>
-      <c r="I233">
-        <v>14</v>
-      </c>
       <c r="J233">
-        <v>0.31</v>
+        <v>0.99</v>
       </c>
       <c r="K233">
-        <v>0.03</v>
+        <v>0.94</v>
       </c>
       <c r="L233">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="M233">
         <v>1</v>
       </c>
       <c r="N233">
-        <v>54.1</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="O233">
-        <v>179.8</v>
+        <v>268.32</v>
       </c>
       <c r="P233">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="234" spans="2:16" x14ac:dyDescent="0.2">
+        <v>217.07</v>
+      </c>
+    </row>
+    <row r="234" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>22</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>288</v>
+      <c r="C234" t="s">
+        <v>125</v>
       </c>
       <c r="D234" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="F234">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G234">
-        <v>52</v>
+        <v>42.5</v>
       </c>
       <c r="H234" t="s">
         <v>25</v>
       </c>
       <c r="I234">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J234">
-        <v>7.0000000000000007E-2</v>
+        <v>0.51</v>
       </c>
       <c r="K234">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L234">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="M234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N234">
-        <v>43.6</v>
+        <v>56.1</v>
       </c>
       <c r="O234">
-        <v>16.7</v>
+        <v>167.2</v>
       </c>
       <c r="P234">
-        <v>38.450000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>126</v>
+        <v>287</v>
       </c>
       <c r="D235" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="E235" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F235">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G235">
-        <v>48</v>
+        <v>42.5</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="I235">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J235">
-        <v>0.99</v>
+        <v>0.04</v>
       </c>
       <c r="K235">
-        <v>0.94</v>
+        <v>0.01</v>
       </c>
       <c r="L235">
         <v>5</v>
       </c>
       <c r="M235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N235">
-        <v>298.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="O235">
-        <v>268.32</v>
+        <v>0</v>
       </c>
       <c r="P235">
-        <v>217.07</v>
-      </c>
-    </row>
-    <row r="236" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>121.85</v>
+      </c>
+    </row>
+    <row r="236" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>22</v>
-      </c>
-      <c r="C236" t="s">
-        <v>127</v>
+        <v>26</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="D236" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="E236" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F236">
+        <v>6</v>
+      </c>
+      <c r="G236">
+        <v>44</v>
+      </c>
+      <c r="H236">
+        <v>33</v>
+      </c>
+      <c r="I236">
         <v>14</v>
       </c>
-      <c r="G236">
-        <v>42.5</v>
-      </c>
-      <c r="H236" t="s">
-        <v>25</v>
-      </c>
-      <c r="I236">
-        <v>13</v>
-      </c>
       <c r="J236">
-        <v>0.51</v>
+        <v>0.04</v>
       </c>
       <c r="K236">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L236">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="M236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N236">
-        <v>56.1</v>
+        <v>0</v>
       </c>
       <c r="O236">
-        <v>167.2</v>
+        <v>0</v>
       </c>
       <c r="P236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="2:16" x14ac:dyDescent="0.2">
+        <v>117.86</v>
+      </c>
+    </row>
+    <row r="237" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>26</v>
       </c>
-      <c r="C237" s="1" t="s">
-        <v>289</v>
+      <c r="C237" t="s">
+        <v>171</v>
       </c>
       <c r="D237" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E237" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F237">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G237">
-        <v>42.5</v>
+        <v>43</v>
       </c>
       <c r="H237">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J237">
-        <v>0.04</v>
+        <v>0.46</v>
       </c>
       <c r="K237">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="L237">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="M237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N237">
-        <v>0</v>
+        <v>220.04</v>
       </c>
       <c r="O237">
-        <v>0</v>
+        <v>220.04</v>
       </c>
       <c r="P237">
-        <v>121.85</v>
+        <v>254.77</v>
       </c>
     </row>
     <row r="238" spans="2:16" x14ac:dyDescent="0.2">
@@ -12279,34 +12244,34 @@
         <v>26</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D238" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E238" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F238">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G238">
-        <v>44</v>
-      </c>
-      <c r="H238">
-        <v>33</v>
+        <v>44.5</v>
+      </c>
+      <c r="H238" t="s">
+        <v>25</v>
       </c>
       <c r="I238">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J238">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="K238">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L238">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M238">
         <v>3</v>
@@ -12318,252 +12283,252 @@
         <v>0</v>
       </c>
       <c r="P238">
-        <v>117.86</v>
-      </c>
-    </row>
-    <row r="239" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>52.46</v>
+      </c>
+    </row>
+    <row r="239" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>26</v>
-      </c>
-      <c r="C239" t="s">
-        <v>173</v>
-      </c>
-      <c r="D239" t="s">
-        <v>207</v>
-      </c>
-      <c r="E239" t="s">
-        <v>180</v>
-      </c>
-      <c r="F239">
-        <v>11</v>
-      </c>
-      <c r="G239">
-        <v>43</v>
-      </c>
-      <c r="H239">
-        <v>15</v>
-      </c>
-      <c r="I239">
-        <v>32</v>
-      </c>
-      <c r="J239">
-        <v>0.46</v>
-      </c>
-      <c r="K239">
-        <v>0.08</v>
-      </c>
-      <c r="L239">
-        <v>50</v>
-      </c>
-      <c r="M239">
-        <v>2</v>
-      </c>
-      <c r="N239">
-        <v>220.04</v>
-      </c>
-      <c r="O239">
-        <v>220.04</v>
-      </c>
-      <c r="P239">
-        <v>254.77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="240" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>26</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D240" t="s">
-        <v>196</v>
-      </c>
-      <c r="E240" t="s">
-        <v>180</v>
-      </c>
-      <c r="F240">
-        <v>10</v>
-      </c>
-      <c r="G240">
-        <v>44.5</v>
-      </c>
-      <c r="H240" t="s">
-        <v>25</v>
-      </c>
-      <c r="I240">
-        <v>10</v>
-      </c>
-      <c r="J240">
-        <v>0.01</v>
-      </c>
-      <c r="K240">
-        <v>0</v>
-      </c>
-      <c r="L240">
-        <v>3</v>
-      </c>
-      <c r="M240">
-        <v>3</v>
-      </c>
-      <c r="N240">
-        <v>0</v>
-      </c>
-      <c r="O240">
-        <v>0</v>
-      </c>
-      <c r="P240">
-        <v>52.46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>29</v>
+        <v>290</v>
       </c>
     </row>
     <row r="242" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="243" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B243" t="s">
-        <v>292</v>
+      <c r="C243" t="s">
+        <v>1</v>
+      </c>
+      <c r="D243" t="s">
+        <v>2</v>
+      </c>
+      <c r="E243" t="s">
+        <v>3</v>
+      </c>
+      <c r="F243" t="s">
+        <v>4</v>
+      </c>
+      <c r="G243" t="s">
+        <v>5</v>
+      </c>
+      <c r="H243" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="245" spans="2:16" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C244" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" t="s">
+        <v>9</v>
+      </c>
+      <c r="E244" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244" t="s">
+        <v>11</v>
+      </c>
+      <c r="G244" t="s">
+        <v>12</v>
+      </c>
+      <c r="H244" t="s">
+        <v>13</v>
+      </c>
+      <c r="I244" t="s">
+        <v>14</v>
+      </c>
+      <c r="J244" t="s">
+        <v>15</v>
+      </c>
+      <c r="K244" t="s">
+        <v>16</v>
+      </c>
+      <c r="L244" t="s">
+        <v>17</v>
+      </c>
+      <c r="M244" t="s">
+        <v>18</v>
+      </c>
+      <c r="N244">
+        <v>2021</v>
+      </c>
+      <c r="O244" t="s">
+        <v>138</v>
+      </c>
+      <c r="P244" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="245" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
+        <v>20</v>
+      </c>
       <c r="C245" t="s">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="D245" t="s">
+        <v>231</v>
+      </c>
+      <c r="E245" t="s">
+        <v>178</v>
+      </c>
+      <c r="F245">
+        <v>10</v>
+      </c>
+      <c r="G245">
+        <v>45.5</v>
+      </c>
+      <c r="H245">
+        <v>22</v>
+      </c>
+      <c r="I245">
+        <v>27</v>
+      </c>
+      <c r="J245">
+        <v>0.23</v>
+      </c>
+      <c r="K245">
+        <v>0.03</v>
+      </c>
+      <c r="L245">
+        <v>20</v>
+      </c>
+      <c r="M245">
         <v>2</v>
       </c>
-      <c r="E245" t="s">
-        <v>3</v>
-      </c>
-      <c r="F245" t="s">
-        <v>4</v>
-      </c>
-      <c r="G245" t="s">
-        <v>5</v>
-      </c>
-      <c r="H245" t="s">
-        <v>6</v>
+      <c r="N245">
+        <v>161.86000000000001</v>
+      </c>
+      <c r="O245">
+        <v>161.86000000000001</v>
+      </c>
+      <c r="P245">
+        <v>243.98</v>
       </c>
     </row>
     <row r="246" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>7</v>
-      </c>
-      <c r="C246" t="s">
+        <v>21</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D246" t="s">
+        <v>235</v>
+      </c>
+      <c r="E246" t="s">
+        <v>192</v>
+      </c>
+      <c r="F246">
         <v>8</v>
       </c>
-      <c r="D246" t="s">
-        <v>9</v>
-      </c>
-      <c r="E246" t="s">
-        <v>10</v>
-      </c>
-      <c r="F246" t="s">
-        <v>11</v>
-      </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
-      <c r="H246" t="s">
-        <v>13</v>
-      </c>
-      <c r="I246" t="s">
-        <v>14</v>
-      </c>
-      <c r="J246" t="s">
-        <v>15</v>
-      </c>
-      <c r="K246" t="s">
-        <v>16</v>
-      </c>
-      <c r="L246" t="s">
-        <v>17</v>
-      </c>
-      <c r="M246" t="s">
-        <v>18</v>
+      <c r="G246">
+        <v>51.5</v>
+      </c>
+      <c r="H246">
+        <v>4</v>
+      </c>
+      <c r="I246">
+        <v>22</v>
+      </c>
+      <c r="J246">
+        <v>0.99</v>
+      </c>
+      <c r="K246">
+        <v>0.9</v>
+      </c>
+      <c r="L246">
+        <v>55</v>
+      </c>
+      <c r="M246">
+        <v>1</v>
       </c>
       <c r="N246">
-        <v>2021</v>
-      </c>
-      <c r="O246" t="s">
-        <v>140</v>
-      </c>
-      <c r="P246" t="s">
-        <v>19</v>
+        <v>357.8</v>
+      </c>
+      <c r="O246">
+        <v>264.7</v>
+      </c>
+      <c r="P246">
+        <v>265.43</v>
       </c>
     </row>
     <row r="247" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C247" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="D247" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="E247" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F247">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G247">
-        <v>45.5</v>
+        <v>44</v>
       </c>
       <c r="H247">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I247">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J247">
-        <v>0.23</v>
+        <v>0.74</v>
       </c>
       <c r="K247">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="L247">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="M247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N247">
-        <v>161.86000000000001</v>
+        <v>231.3</v>
       </c>
       <c r="O247">
-        <v>161.86000000000001</v>
+        <v>331.98</v>
       </c>
       <c r="P247">
-        <v>243.98</v>
+        <v>252.71</v>
       </c>
     </row>
     <row r="248" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="D248" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="E248" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F248">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G248">
         <v>51.5</v>
@@ -12572,550 +12537,550 @@
         <v>4</v>
       </c>
       <c r="I248">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J248">
         <v>0.99</v>
       </c>
       <c r="K248">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="L248">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="M248">
         <v>1</v>
       </c>
       <c r="N248">
-        <v>357.8</v>
+        <v>305.3</v>
       </c>
       <c r="O248">
-        <v>264.7</v>
+        <v>264.8</v>
       </c>
       <c r="P248">
-        <v>265.43</v>
-      </c>
-    </row>
-    <row r="249" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>189.82</v>
+      </c>
+    </row>
+    <row r="249" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>21</v>
-      </c>
-      <c r="C249" t="s">
-        <v>293</v>
+        <v>22</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D249" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E249" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F249">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G249">
         <v>44</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I249">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J249">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="K249">
-        <v>0.17</v>
+        <v>0.9</v>
       </c>
       <c r="L249">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="M249">
         <v>1</v>
       </c>
       <c r="N249">
-        <v>231.3</v>
+        <v>228.4</v>
       </c>
       <c r="O249">
-        <v>331.98</v>
+        <v>179.7</v>
       </c>
       <c r="P249">
-        <v>252.71</v>
-      </c>
-    </row>
-    <row r="250" spans="2:16" x14ac:dyDescent="0.2">
+        <v>163.54</v>
+      </c>
+    </row>
+    <row r="250" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>22</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>294</v>
+      <c r="C250" t="s">
+        <v>173</v>
       </c>
       <c r="D250" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="E250" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F250">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G250">
-        <v>51.5</v>
-      </c>
-      <c r="H250">
+        <v>43</v>
+      </c>
+      <c r="H250" t="s">
+        <v>25</v>
+      </c>
+      <c r="I250">
+        <v>25</v>
+      </c>
+      <c r="J250">
+        <v>0.34</v>
+      </c>
+      <c r="K250">
+        <v>0.06</v>
+      </c>
+      <c r="L250">
         <v>4</v>
       </c>
-      <c r="I250">
-        <v>3</v>
-      </c>
-      <c r="J250">
-        <v>0.99</v>
-      </c>
-      <c r="K250">
-        <v>0.91</v>
-      </c>
-      <c r="L250">
-        <v>69</v>
-      </c>
       <c r="M250">
         <v>1</v>
       </c>
       <c r="N250">
-        <v>305.3</v>
+        <v>96</v>
       </c>
       <c r="O250">
-        <v>264.8</v>
+        <v>115.6</v>
       </c>
       <c r="P250">
-        <v>189.82</v>
-      </c>
-    </row>
-    <row r="251" spans="2:16" x14ac:dyDescent="0.2">
+        <v>76.17</v>
+      </c>
+    </row>
+    <row r="251" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>22</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>130</v>
+        <v>23</v>
+      </c>
+      <c r="C251" t="s">
+        <v>174</v>
       </c>
       <c r="D251" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="E251" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="F251">
         <v>9</v>
       </c>
       <c r="G251">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H251">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I251">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J251">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="K251">
-        <v>0.9</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L251">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="M251">
         <v>1</v>
       </c>
       <c r="N251">
-        <v>228.4</v>
+        <v>173.8</v>
       </c>
       <c r="O251">
-        <v>179.7</v>
+        <v>96.6</v>
       </c>
       <c r="P251">
-        <v>163.54</v>
-      </c>
-    </row>
-    <row r="252" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>121.82</v>
+      </c>
+    </row>
+    <row r="252" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>22</v>
-      </c>
-      <c r="C252" t="s">
-        <v>175</v>
+        <v>24</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D252" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="E252" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F252">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G252">
         <v>43</v>
       </c>
-      <c r="H252" t="s">
-        <v>25</v>
+      <c r="H252">
+        <v>15</v>
       </c>
       <c r="I252">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="J252">
-        <v>0.34</v>
+        <v>0.99</v>
       </c>
       <c r="K252">
-        <v>0.06</v>
+        <v>0.89</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M252">
         <v>1</v>
       </c>
       <c r="N252">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="O252">
-        <v>115.6</v>
+        <v>242.4</v>
       </c>
       <c r="P252">
-        <v>76.17</v>
-      </c>
-    </row>
-    <row r="253" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>182.32</v>
+      </c>
+    </row>
+    <row r="253" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>23</v>
-      </c>
-      <c r="C253" t="s">
-        <v>176</v>
+        <v>26</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="D253" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="E253" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="F253">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G253">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H253">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="I253">
         <v>19</v>
       </c>
       <c r="J253">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
       <c r="K253">
-        <v>0.56999999999999995</v>
+        <v>0.49</v>
       </c>
       <c r="L253">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M253">
         <v>1</v>
       </c>
       <c r="N253">
-        <v>173.8</v>
+        <v>189.7</v>
       </c>
       <c r="O253">
-        <v>96.6</v>
+        <v>153.9</v>
       </c>
       <c r="P253">
-        <v>121.82</v>
+        <v>148.16</v>
       </c>
     </row>
     <row r="254" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>131</v>
+        <v>294</v>
       </c>
       <c r="D254" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="E254" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F254">
         <v>14</v>
       </c>
       <c r="G254">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H254">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I254">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J254">
-        <v>0.99</v>
+        <v>0.71</v>
       </c>
       <c r="K254">
-        <v>0.89</v>
+        <v>0.39</v>
       </c>
       <c r="L254">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="M254">
         <v>1</v>
       </c>
       <c r="N254">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="O254">
-        <v>242.4</v>
+        <v>136</v>
       </c>
       <c r="P254">
-        <v>182.32</v>
+        <v>157.69999999999999</v>
       </c>
     </row>
     <row r="255" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>26</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D255" t="s">
-        <v>265</v>
-      </c>
-      <c r="E255" t="s">
-        <v>180</v>
-      </c>
-      <c r="F255">
-        <v>14</v>
-      </c>
-      <c r="G255">
-        <v>43</v>
-      </c>
-      <c r="H255">
-        <v>27</v>
-      </c>
-      <c r="I255">
-        <v>19</v>
-      </c>
-      <c r="J255">
-        <v>0.89</v>
-      </c>
-      <c r="K255">
-        <v>0.49</v>
-      </c>
-      <c r="L255">
-        <v>2</v>
-      </c>
-      <c r="M255">
-        <v>1</v>
-      </c>
-      <c r="N255">
-        <v>189.7</v>
-      </c>
-      <c r="O255">
-        <v>153.9</v>
-      </c>
-      <c r="P255">
-        <v>148.16</v>
-      </c>
-    </row>
-    <row r="256" spans="2:16" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="256" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>27</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>296</v>
+        <v>21</v>
+      </c>
+      <c r="C256" t="s">
+        <v>175</v>
       </c>
       <c r="D256" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="E256" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F256">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G256">
-        <v>45</v>
+        <v>43.5</v>
       </c>
       <c r="H256">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="I256">
         <v>16</v>
       </c>
       <c r="J256">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="K256">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="L256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M256">
         <v>1</v>
       </c>
       <c r="N256">
-        <v>137</v>
+        <v>112.9</v>
       </c>
       <c r="O256">
-        <v>136</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="P256">
-        <v>157.69999999999999</v>
-      </c>
-    </row>
-    <row r="257" spans="2:16" x14ac:dyDescent="0.2">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="257" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="C257" t="s">
+        <v>295</v>
+      </c>
+      <c r="D257" t="s">
+        <v>263</v>
+      </c>
+      <c r="E257" t="s">
+        <v>178</v>
+      </c>
+      <c r="F257">
+        <v>14</v>
+      </c>
+      <c r="G257">
+        <v>43</v>
+      </c>
+      <c r="H257">
+        <v>53</v>
+      </c>
+      <c r="I257">
+        <v>3</v>
+      </c>
+      <c r="J257">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="M257">
+        <v>1</v>
+      </c>
+      <c r="N257">
+        <v>94.9</v>
+      </c>
+      <c r="O257">
+        <v>94.9</v>
+      </c>
+      <c r="P257">
+        <v>63.1</v>
       </c>
     </row>
     <row r="258" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
+        <v>22</v>
+      </c>
+      <c r="C258" t="s">
+        <v>296</v>
+      </c>
+      <c r="D258" t="s">
+        <v>195</v>
+      </c>
+      <c r="E258" t="s">
+        <v>196</v>
+      </c>
+      <c r="F258">
+        <v>7</v>
+      </c>
+      <c r="G258">
+        <v>52.5</v>
+      </c>
+      <c r="H258" t="s">
+        <v>25</v>
+      </c>
+      <c r="I258">
         <v>21</v>
       </c>
-      <c r="C258" t="s">
-        <v>177</v>
-      </c>
-      <c r="D258" t="s">
-        <v>242</v>
-      </c>
-      <c r="E258" t="s">
-        <v>180</v>
-      </c>
-      <c r="F258">
-        <v>13</v>
-      </c>
-      <c r="G258">
-        <v>43.5</v>
-      </c>
-      <c r="H258">
-        <v>48</v>
-      </c>
-      <c r="I258">
-        <v>16</v>
-      </c>
       <c r="J258">
-        <v>0.77</v>
+        <v>0.39</v>
       </c>
       <c r="K258">
-        <v>0.3</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L258">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M258">
         <v>1</v>
       </c>
       <c r="N258">
-        <v>112.9</v>
+        <v>80.7</v>
       </c>
       <c r="O258">
-        <v>69.400000000000006</v>
+        <v>129.16</v>
       </c>
       <c r="P258">
-        <v>73.2</v>
-      </c>
-    </row>
-    <row r="259" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>71.31</v>
+      </c>
+    </row>
+    <row r="259" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>21</v>
-      </c>
-      <c r="C259" t="s">
+        <v>26</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>297</v>
       </c>
       <c r="D259" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="E259" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F259">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G259">
-        <v>43</v>
-      </c>
-      <c r="H259">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="H259" t="s">
+        <v>25</v>
       </c>
       <c r="I259">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J259">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="K259">
         <v>0</v>
       </c>
       <c r="L259">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M259">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N259">
-        <v>94.9</v>
+        <v>0</v>
       </c>
       <c r="O259">
-        <v>94.9</v>
+        <v>0</v>
       </c>
       <c r="P259">
-        <v>63.1</v>
-      </c>
-    </row>
-    <row r="260" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="260" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>22</v>
-      </c>
-      <c r="C260" t="s">
+        <v>26</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>298</v>
       </c>
       <c r="D260" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E260" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="F260">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G260">
-        <v>52.5</v>
-      </c>
-      <c r="H260" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="H260">
+        <v>27</v>
       </c>
       <c r="I260">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J260">
-        <v>0.39</v>
+        <v>0.18</v>
       </c>
       <c r="K260">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="L260">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N260">
-        <v>80.7</v>
+        <v>161.96</v>
       </c>
       <c r="O260">
-        <v>129.16</v>
+        <v>161.96</v>
       </c>
       <c r="P260">
-        <v>71.31</v>
+        <v>194.04</v>
       </c>
     </row>
     <row r="261" spans="2:16" x14ac:dyDescent="0.2">
@@ -13126,25 +13091,25 @@
         <v>299</v>
       </c>
       <c r="D261" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E261" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F261">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G261">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H261" t="s">
         <v>25</v>
       </c>
       <c r="I261">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J261">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K261">
         <v>0</v>
@@ -13162,742 +13127,742 @@
         <v>0</v>
       </c>
       <c r="P261">
-        <v>24.62</v>
+        <v>15.23</v>
       </c>
     </row>
     <row r="262" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D262" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E262" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F262">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G262">
-        <v>45</v>
+        <v>41.5</v>
       </c>
       <c r="H262">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I262">
         <v>24</v>
       </c>
       <c r="J262">
-        <v>0.18</v>
+        <v>0.54</v>
       </c>
       <c r="K262">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="L262">
         <v>3</v>
       </c>
       <c r="M262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N262">
-        <v>161.96</v>
+        <v>88</v>
       </c>
       <c r="O262">
-        <v>161.96</v>
+        <v>103</v>
       </c>
       <c r="P262">
-        <v>194.04</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="263" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>26</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D263" t="s">
-        <v>205</v>
-      </c>
-      <c r="E263" t="s">
-        <v>180</v>
-      </c>
-      <c r="F263">
-        <v>14</v>
-      </c>
-      <c r="G263">
-        <v>45</v>
-      </c>
-      <c r="H263" t="s">
-        <v>25</v>
-      </c>
-      <c r="I263">
-        <v>26</v>
-      </c>
-      <c r="J263">
-        <v>0.02</v>
-      </c>
-      <c r="K263">
-        <v>0</v>
-      </c>
-      <c r="L263">
-        <v>3</v>
-      </c>
-      <c r="M263">
-        <v>3</v>
-      </c>
-      <c r="N263">
-        <v>0</v>
-      </c>
-      <c r="O263">
-        <v>0</v>
-      </c>
-      <c r="P263">
-        <v>15.23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="264" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>27</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D264" t="s">
-        <v>190</v>
-      </c>
-      <c r="E264" t="s">
-        <v>191</v>
-      </c>
-      <c r="F264">
-        <v>11</v>
-      </c>
-      <c r="G264">
-        <v>41.5</v>
-      </c>
-      <c r="H264">
-        <v>31</v>
-      </c>
-      <c r="I264">
-        <v>24</v>
-      </c>
-      <c r="J264">
-        <v>0.54</v>
-      </c>
-      <c r="K264">
-        <v>0.26</v>
-      </c>
-      <c r="L264">
-        <v>3</v>
-      </c>
-      <c r="M264">
-        <v>1</v>
-      </c>
-      <c r="N264">
-        <v>88</v>
-      </c>
-      <c r="O264">
-        <v>103</v>
-      </c>
-      <c r="P264">
-        <v>106.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="265" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>29</v>
+        <v>301</v>
       </c>
     </row>
     <row r="266" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="267" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B267" t="s">
-        <v>303</v>
+      <c r="C267" t="s">
+        <v>1</v>
+      </c>
+      <c r="D267" t="s">
+        <v>2</v>
+      </c>
+      <c r="E267" t="s">
+        <v>3</v>
+      </c>
+      <c r="F267" t="s">
+        <v>4</v>
+      </c>
+      <c r="G267" t="s">
+        <v>5</v>
+      </c>
+      <c r="H267" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="268" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="C268" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268" t="s">
+        <v>10</v>
+      </c>
+      <c r="F268" t="s">
+        <v>11</v>
+      </c>
+      <c r="G268" t="s">
+        <v>12</v>
+      </c>
+      <c r="H268" t="s">
+        <v>13</v>
+      </c>
+      <c r="I268" t="s">
+        <v>14</v>
+      </c>
+      <c r="J268" t="s">
+        <v>15</v>
+      </c>
+      <c r="K268" t="s">
+        <v>16</v>
+      </c>
+      <c r="L268" t="s">
+        <v>17</v>
+      </c>
+      <c r="M268" t="s">
+        <v>18</v>
+      </c>
+      <c r="N268">
+        <v>2021</v>
+      </c>
+      <c r="O268" t="s">
+        <v>138</v>
+      </c>
+      <c r="P268" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="269" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C269" t="s">
-        <v>1</v>
+      <c r="B269" t="s">
+        <v>20</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D269" t="s">
+        <v>212</v>
+      </c>
+      <c r="E269" t="s">
+        <v>178</v>
+      </c>
+      <c r="F269">
+        <v>10</v>
+      </c>
+      <c r="G269">
+        <v>45.5</v>
+      </c>
+      <c r="H269">
+        <v>4</v>
+      </c>
+      <c r="I269">
+        <v>29</v>
+      </c>
+      <c r="J269">
+        <v>0.95</v>
+      </c>
+      <c r="K269">
+        <v>0.34</v>
+      </c>
+      <c r="L269">
+        <v>83</v>
+      </c>
+      <c r="M269">
         <v>2</v>
       </c>
-      <c r="E269" t="s">
-        <v>3</v>
-      </c>
-      <c r="F269" t="s">
-        <v>4</v>
-      </c>
-      <c r="G269" t="s">
-        <v>5</v>
-      </c>
-      <c r="H269" t="s">
-        <v>6</v>
+      <c r="N269">
+        <v>287.98</v>
+      </c>
+      <c r="O269">
+        <v>386.18</v>
+      </c>
+      <c r="P269">
+        <v>344.44</v>
       </c>
     </row>
     <row r="270" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
-        <v>7</v>
-      </c>
-      <c r="C270" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="D270" t="s">
+        <v>204</v>
+      </c>
+      <c r="E270" t="s">
+        <v>178</v>
+      </c>
+      <c r="F270">
         <v>9</v>
       </c>
-      <c r="E270" t="s">
-        <v>10</v>
-      </c>
-      <c r="F270" t="s">
-        <v>11</v>
-      </c>
-      <c r="G270" t="s">
-        <v>12</v>
-      </c>
-      <c r="H270" t="s">
-        <v>13</v>
-      </c>
-      <c r="I270" t="s">
-        <v>14</v>
-      </c>
-      <c r="J270" t="s">
-        <v>15</v>
-      </c>
-      <c r="K270" t="s">
-        <v>16</v>
-      </c>
-      <c r="L270" t="s">
-        <v>17</v>
-      </c>
-      <c r="M270" t="s">
+      <c r="G270">
+        <v>44</v>
+      </c>
+      <c r="H270">
+        <v>3</v>
+      </c>
+      <c r="I270">
         <v>18</v>
       </c>
+      <c r="J270">
+        <v>0.99</v>
+      </c>
+      <c r="K270">
+        <v>0.95</v>
+      </c>
+      <c r="L270">
+        <v>25</v>
+      </c>
+      <c r="M270">
+        <v>2</v>
+      </c>
       <c r="N270">
-        <v>2021</v>
-      </c>
-      <c r="O270" t="s">
-        <v>140</v>
-      </c>
-      <c r="P270" t="s">
-        <v>19</v>
+        <v>310.7</v>
+      </c>
+      <c r="O270">
+        <v>310.7</v>
+      </c>
+      <c r="P270">
+        <v>213.69</v>
       </c>
     </row>
     <row r="271" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>132</v>
+        <v>303</v>
       </c>
       <c r="D271" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="E271" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F271">
+        <v>8</v>
+      </c>
+      <c r="G271">
+        <v>51.5</v>
+      </c>
+      <c r="H271">
+        <v>52</v>
+      </c>
+      <c r="I271">
+        <v>22</v>
+      </c>
+      <c r="J271">
+        <v>0.04</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
         <v>10</v>
       </c>
-      <c r="G271">
-        <v>45.5</v>
-      </c>
-      <c r="H271">
-        <v>4</v>
-      </c>
-      <c r="I271">
-        <v>29</v>
-      </c>
-      <c r="J271">
-        <v>0.95</v>
-      </c>
-      <c r="K271">
-        <v>0.34</v>
-      </c>
-      <c r="L271">
-        <v>83</v>
-      </c>
       <c r="M271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N271">
-        <v>287.98</v>
+        <v>0</v>
       </c>
       <c r="O271">
-        <v>386.18</v>
+        <v>0</v>
       </c>
       <c r="P271">
-        <v>344.44</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="272" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>304</v>
+        <v>131</v>
       </c>
       <c r="D272" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="E272" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="F272">
         <v>9</v>
       </c>
       <c r="G272">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H272">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I272">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J272">
         <v>0.99</v>
       </c>
       <c r="K272">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="L272">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N272">
-        <v>310.7</v>
+        <v>211.8</v>
       </c>
       <c r="O272">
-        <v>310.7</v>
+        <v>199.7</v>
       </c>
       <c r="P272">
-        <v>213.69</v>
+        <v>177.31</v>
       </c>
     </row>
     <row r="273" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>305</v>
+        <v>132</v>
       </c>
       <c r="D273" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E273" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F273">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G273">
-        <v>51.5</v>
+        <v>43.5</v>
       </c>
       <c r="H273">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="I273">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J273">
-        <v>0.04</v>
+        <v>0.98</v>
       </c>
       <c r="K273">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="L273">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="M273">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N273">
-        <v>0</v>
+        <v>208.5</v>
       </c>
       <c r="O273">
-        <v>0</v>
+        <v>205.2</v>
       </c>
       <c r="P273">
-        <v>22.01</v>
-      </c>
-    </row>
-    <row r="274" spans="2:16" x14ac:dyDescent="0.2">
+        <v>148.05000000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>22</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="C274" t="s">
         <v>133</v>
       </c>
       <c r="D274" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E274" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="F274">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G274">
+        <v>42.5</v>
+      </c>
+      <c r="H274">
+        <v>16</v>
+      </c>
+      <c r="I274">
+        <v>26</v>
+      </c>
+      <c r="J274">
+        <v>0.33</v>
+      </c>
+      <c r="K274">
+        <v>0.09</v>
+      </c>
+      <c r="L274">
         <v>52</v>
       </c>
-      <c r="H274">
-        <v>6</v>
-      </c>
-      <c r="I274">
-        <v>12</v>
-      </c>
-      <c r="J274">
-        <v>0.99</v>
-      </c>
-      <c r="K274">
-        <v>0.92</v>
-      </c>
-      <c r="L274">
-        <v>20</v>
-      </c>
       <c r="M274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N274">
-        <v>211.8</v>
+        <v>0</v>
       </c>
       <c r="O274">
-        <v>199.7</v>
+        <v>129.1</v>
       </c>
       <c r="P274">
-        <v>177.31</v>
-      </c>
-    </row>
-    <row r="275" spans="2:16" x14ac:dyDescent="0.2">
+        <v>141.28</v>
+      </c>
+    </row>
+    <row r="275" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>22</v>
-      </c>
-      <c r="C275" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C275" t="s">
         <v>134</v>
       </c>
       <c r="D275" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="E275" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F275">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G275">
-        <v>43.5</v>
+        <v>44</v>
       </c>
       <c r="H275">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I275">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J275">
         <v>0.98</v>
       </c>
       <c r="K275">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="L275">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="M275">
         <v>1</v>
       </c>
       <c r="N275">
-        <v>208.5</v>
+        <v>198.1</v>
       </c>
       <c r="O275">
-        <v>205.2</v>
+        <v>187.4</v>
       </c>
       <c r="P275">
-        <v>148.05000000000001</v>
-      </c>
-    </row>
-    <row r="276" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>167.61</v>
+      </c>
+    </row>
+    <row r="276" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
-        <v>22</v>
-      </c>
-      <c r="C276" t="s">
+        <v>26</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D276" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E276" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F276">
         <v>14</v>
       </c>
       <c r="G276">
-        <v>42.5</v>
+        <v>43</v>
       </c>
       <c r="H276">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I276">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J276">
-        <v>0.33</v>
+        <v>0.73</v>
       </c>
       <c r="K276">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="L276">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N276">
-        <v>0</v>
+        <v>279.02</v>
       </c>
       <c r="O276">
-        <v>129.1</v>
+        <v>262.77999999999997</v>
       </c>
       <c r="P276">
-        <v>141.28</v>
-      </c>
-    </row>
-    <row r="277" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>227.27</v>
+      </c>
+    </row>
+    <row r="277" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>24</v>
-      </c>
-      <c r="C277" t="s">
-        <v>136</v>
-      </c>
-      <c r="D277" t="s">
-        <v>179</v>
-      </c>
-      <c r="E277" t="s">
-        <v>180</v>
-      </c>
-      <c r="F277">
-        <v>10</v>
-      </c>
-      <c r="G277">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="278" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
+        <v>20</v>
+      </c>
+      <c r="C278" t="s">
+        <v>176</v>
+      </c>
+      <c r="D278" t="s">
+        <v>197</v>
+      </c>
+      <c r="E278" t="s">
+        <v>192</v>
+      </c>
+      <c r="F278">
+        <v>9</v>
+      </c>
+      <c r="G278">
         <v>44</v>
       </c>
-      <c r="H277">
-        <v>11</v>
-      </c>
-      <c r="I277">
+      <c r="H278">
+        <v>21</v>
+      </c>
+      <c r="I278">
         <v>15</v>
       </c>
-      <c r="J277">
-        <v>0.98</v>
-      </c>
-      <c r="K277">
-        <v>0.77</v>
-      </c>
-      <c r="L277">
-        <v>5</v>
-      </c>
-      <c r="M277">
-        <v>1</v>
-      </c>
-      <c r="N277">
-        <v>198.1</v>
-      </c>
-      <c r="O277">
-        <v>187.4</v>
-      </c>
-      <c r="P277">
-        <v>167.61</v>
-      </c>
-    </row>
-    <row r="278" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B278" t="s">
-        <v>26</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D278" t="s">
-        <v>182</v>
-      </c>
-      <c r="E278" t="s">
-        <v>180</v>
-      </c>
-      <c r="F278">
-        <v>14</v>
-      </c>
-      <c r="G278">
-        <v>43</v>
-      </c>
-      <c r="H278">
-        <v>26</v>
-      </c>
-      <c r="I278">
-        <v>25</v>
-      </c>
       <c r="J278">
-        <v>0.73</v>
+        <v>0.26</v>
       </c>
       <c r="K278">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="L278">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M278">
         <v>1</v>
       </c>
       <c r="N278">
-        <v>279.02</v>
+        <v>183.52</v>
       </c>
       <c r="O278">
-        <v>262.77999999999997</v>
+        <v>205.76</v>
       </c>
       <c r="P278">
-        <v>227.27</v>
+        <v>201.38</v>
       </c>
     </row>
     <row r="279" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D279" t="s">
+        <v>195</v>
+      </c>
+      <c r="E279" t="s">
+        <v>196</v>
+      </c>
+      <c r="F279">
+        <v>7</v>
+      </c>
+      <c r="G279">
+        <v>52.5</v>
+      </c>
+      <c r="H279" t="s">
+        <v>25</v>
+      </c>
+      <c r="I279">
+        <v>9</v>
+      </c>
+      <c r="J279">
+        <v>0.42</v>
+      </c>
+      <c r="K279">
+        <v>0.08</v>
+      </c>
+      <c r="L279">
+        <v>3</v>
+      </c>
+      <c r="M279">
+        <v>1</v>
+      </c>
+      <c r="N279">
+        <v>116.2</v>
+      </c>
+      <c r="O279">
+        <v>119.9</v>
+      </c>
+      <c r="P279">
+        <v>21.4</v>
       </c>
     </row>
     <row r="280" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C280" t="s">
+        <v>305</v>
+      </c>
+      <c r="D280" t="s">
+        <v>184</v>
+      </c>
+      <c r="E280" t="s">
         <v>178</v>
-      </c>
-      <c r="D280" t="s">
-        <v>199</v>
-      </c>
-      <c r="E280" t="s">
-        <v>194</v>
       </c>
       <c r="F280">
         <v>9</v>
       </c>
       <c r="G280">
-        <v>44</v>
-      </c>
-      <c r="H280">
+        <v>43</v>
+      </c>
+      <c r="H280" t="s">
+        <v>25</v>
+      </c>
+      <c r="I280">
+        <v>19</v>
+      </c>
+      <c r="J280">
+        <v>0.63</v>
+      </c>
+      <c r="K280">
+        <v>0.16</v>
+      </c>
+      <c r="L280">
+        <v>2</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+      <c r="N280">
+        <v>64.5</v>
+      </c>
+      <c r="O280">
+        <v>90.9</v>
+      </c>
+      <c r="P280">
+        <v>19.91</v>
+      </c>
+    </row>
+    <row r="281" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B281" t="s">
+        <v>22</v>
+      </c>
+      <c r="C281" t="s">
+        <v>306</v>
+      </c>
+      <c r="D281" t="s">
+        <v>212</v>
+      </c>
+      <c r="E281" t="s">
+        <v>178</v>
+      </c>
+      <c r="F281">
+        <v>10</v>
+      </c>
+      <c r="G281">
+        <v>45.5</v>
+      </c>
+      <c r="H281">
+        <v>36</v>
+      </c>
+      <c r="I281">
+        <v>16</v>
+      </c>
+      <c r="J281">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K281">
+        <v>0.16</v>
+      </c>
+      <c r="L281">
+        <v>5</v>
+      </c>
+      <c r="M281">
+        <v>2</v>
+      </c>
+      <c r="N281">
+        <v>86.5</v>
+      </c>
+      <c r="O281">
+        <v>86.5</v>
+      </c>
+      <c r="P281">
+        <v>133.55000000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
+        <v>22</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D282" t="s">
+        <v>195</v>
+      </c>
+      <c r="E282" t="s">
+        <v>196</v>
+      </c>
+      <c r="F282">
+        <v>7</v>
+      </c>
+      <c r="G282">
+        <v>52.5</v>
+      </c>
+      <c r="H282">
+        <v>31</v>
+      </c>
+      <c r="I282">
         <v>21</v>
       </c>
-      <c r="I280">
-        <v>15</v>
-      </c>
-      <c r="J280">
-        <v>0.26</v>
-      </c>
-      <c r="K280">
-        <v>0.01</v>
-      </c>
-      <c r="L280">
-        <v>48</v>
-      </c>
-      <c r="M280">
-        <v>1</v>
-      </c>
-      <c r="N280">
-        <v>183.52</v>
-      </c>
-      <c r="O280">
-        <v>205.76</v>
-      </c>
-      <c r="P280">
-        <v>201.38</v>
-      </c>
-    </row>
-    <row r="281" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B281" t="s">
-        <v>21</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D281" t="s">
-        <v>197</v>
-      </c>
-      <c r="E281" t="s">
-        <v>198</v>
-      </c>
-      <c r="F281">
-        <v>7</v>
-      </c>
-      <c r="G281">
-        <v>52.5</v>
-      </c>
-      <c r="H281" t="s">
-        <v>25</v>
-      </c>
-      <c r="I281">
-        <v>9</v>
-      </c>
-      <c r="J281">
-        <v>0.42</v>
-      </c>
-      <c r="K281">
-        <v>0.08</v>
-      </c>
-      <c r="L281">
-        <v>3</v>
-      </c>
-      <c r="M281">
-        <v>1</v>
-      </c>
-      <c r="N281">
-        <v>116.2</v>
-      </c>
-      <c r="O281">
-        <v>119.9</v>
-      </c>
-      <c r="P281">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="282" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B282" t="s">
-        <v>21</v>
-      </c>
-      <c r="C282" t="s">
-        <v>307</v>
-      </c>
-      <c r="D282" t="s">
-        <v>186</v>
-      </c>
-      <c r="E282" t="s">
-        <v>180</v>
-      </c>
-      <c r="F282">
-        <v>9</v>
-      </c>
-      <c r="G282">
-        <v>43</v>
-      </c>
-      <c r="H282" t="s">
-        <v>25</v>
-      </c>
-      <c r="I282">
-        <v>19</v>
-      </c>
       <c r="J282">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="K282">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="L282">
         <v>2</v>
@@ -13906,13 +13871,13 @@
         <v>1</v>
       </c>
       <c r="N282">
-        <v>64.5</v>
+        <v>119.9</v>
       </c>
       <c r="O282">
-        <v>90.9</v>
+        <v>121.4</v>
       </c>
       <c r="P282">
-        <v>19.91</v>
+        <v>141.88999999999999</v>
       </c>
     </row>
     <row r="283" spans="2:16" ht="17" x14ac:dyDescent="0.2">
@@ -13920,60 +13885,60 @@
         <v>22</v>
       </c>
       <c r="C283" t="s">
-        <v>308</v>
+        <v>137</v>
       </c>
       <c r="D283" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="E283" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F283">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G283">
-        <v>45.5</v>
-      </c>
-      <c r="H283">
-        <v>36</v>
+        <v>43.5</v>
+      </c>
+      <c r="H283" t="s">
+        <v>25</v>
       </c>
       <c r="I283">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J283">
-        <v>0.55000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="K283">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L283">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M283">
         <v>2</v>
       </c>
       <c r="N283">
-        <v>86.5</v>
+        <v>22.8</v>
       </c>
       <c r="O283">
-        <v>86.5</v>
+        <v>22.8</v>
       </c>
       <c r="P283">
-        <v>133.55000000000001</v>
+        <v>26.43</v>
       </c>
     </row>
     <row r="284" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>138</v>
+        <v>307</v>
       </c>
       <c r="D284" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E284" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F284">
         <v>7</v>
@@ -13981,188 +13946,94 @@
       <c r="G284">
         <v>52.5</v>
       </c>
-      <c r="H284">
-        <v>31</v>
+      <c r="H284" t="s">
+        <v>25</v>
       </c>
       <c r="I284">
         <v>21</v>
       </c>
       <c r="J284">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K284">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="L284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M284">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N284">
-        <v>119.9</v>
+        <v>0</v>
       </c>
       <c r="O284">
-        <v>121.4</v>
+        <v>0</v>
       </c>
       <c r="P284">
-        <v>141.88999999999999</v>
-      </c>
-    </row>
-    <row r="285" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>28.03</v>
+      </c>
+    </row>
+    <row r="285" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
-        <v>22</v>
-      </c>
-      <c r="C285" t="s">
-        <v>139</v>
+        <v>26</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="D285" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E285" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F285">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G285">
-        <v>43.5</v>
+        <v>44</v>
       </c>
       <c r="H285" t="s">
         <v>25</v>
       </c>
       <c r="I285">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J285">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="K285">
         <v>0</v>
       </c>
       <c r="L285">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N285">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="O285">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="P285">
-        <v>26.43</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="286" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
-        <v>26</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D286" t="s">
-        <v>197</v>
-      </c>
-      <c r="E286" t="s">
-        <v>198</v>
-      </c>
-      <c r="F286">
-        <v>7</v>
-      </c>
-      <c r="G286">
-        <v>52.5</v>
-      </c>
-      <c r="H286" t="s">
-        <v>25</v>
-      </c>
-      <c r="I286">
-        <v>21</v>
-      </c>
-      <c r="J286">
-        <v>0</v>
-      </c>
-      <c r="K286">
-        <v>0</v>
-      </c>
-      <c r="L286">
-        <v>3</v>
-      </c>
-      <c r="M286">
-        <v>3</v>
-      </c>
-      <c r="N286">
-        <v>0</v>
-      </c>
-      <c r="O286">
-        <v>0</v>
-      </c>
-      <c r="P286">
-        <v>28.03</v>
+        <v>29</v>
       </c>
     </row>
     <row r="287" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>26</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D287" t="s">
-        <v>201</v>
-      </c>
-      <c r="E287" t="s">
-        <v>194</v>
-      </c>
-      <c r="F287">
-        <v>6</v>
-      </c>
-      <c r="G287">
-        <v>44</v>
-      </c>
-      <c r="H287" t="s">
-        <v>25</v>
-      </c>
-      <c r="I287">
-        <v>9</v>
-      </c>
-      <c r="J287">
-        <v>0.02</v>
-      </c>
-      <c r="K287">
-        <v>0</v>
-      </c>
-      <c r="L287">
-        <v>5</v>
-      </c>
-      <c r="M287">
-        <v>3</v>
-      </c>
-      <c r="N287">
-        <v>0</v>
-      </c>
-      <c r="O287">
-        <v>0</v>
-      </c>
-      <c r="P287">
-        <v>13.14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="288" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B289" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B290" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
